--- a/Dok/Zeitplanung.xlsx
+++ b/Dok/Zeitplanung.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="DieseArbeitsmappe" showPivotChartFilter="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuaodermatt/My Data/BLJ/Ultimate-Battlesnake/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuaodermatt/My Data/BLJ/Ultimate-Battlesnake/Dok/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567B5C6F-6F66-CB44-B427-AD5142B0538F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358B7622-B29F-A843-8836-8E51CB658900}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="61">
   <si>
     <t>Nr.</t>
   </si>
@@ -251,13 +251,22 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Anforderung #08</t>
+  </si>
+  <si>
+    <t>Anforderung #09</t>
+  </si>
+  <si>
+    <t>Anforderung #010</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
@@ -343,6 +352,7 @@
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -355,8 +365,14 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="4" tint="0.39997558519241921"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -451,6 +467,17 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="gray125">
+        <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="49">
     <border>
@@ -1095,7 +1122,7 @@
     </xf>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1397,6 +1424,82 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1537,13 +1640,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2118,8 +2221,8 @@
   </sheetPr>
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AR24" sqref="AR24"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AT30" sqref="AT30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1"/>
@@ -2438,88 +2541,88 @@
     <row r="7" spans="1:62" ht="15" customHeight="1">
       <c r="A7" s="9"/>
       <c r="B7" s="27"/>
-      <c r="C7" s="91" t="s">
+      <c r="C7" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="91"/>
+      <c r="D7" s="110"/>
       <c r="E7" s="28" t="s">
         <v>21</v>
       </c>
       <c r="F7" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="92" t="s">
+      <c r="G7" s="111" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="92"/>
-      <c r="M7" s="93"/>
-      <c r="N7" s="92" t="s">
+      <c r="H7" s="111"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="112"/>
+      <c r="N7" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="O7" s="92"/>
-      <c r="P7" s="92"/>
-      <c r="Q7" s="92"/>
-      <c r="R7" s="92"/>
-      <c r="S7" s="92"/>
-      <c r="T7" s="93"/>
-      <c r="U7" s="92" t="s">
+      <c r="O7" s="111"/>
+      <c r="P7" s="111"/>
+      <c r="Q7" s="111"/>
+      <c r="R7" s="111"/>
+      <c r="S7" s="111"/>
+      <c r="T7" s="112"/>
+      <c r="U7" s="111" t="s">
         <v>45</v>
       </c>
-      <c r="V7" s="92"/>
-      <c r="W7" s="92"/>
-      <c r="X7" s="92"/>
-      <c r="Y7" s="92"/>
-      <c r="Z7" s="92"/>
-      <c r="AA7" s="93"/>
-      <c r="AB7" s="94" t="s">
+      <c r="V7" s="111"/>
+      <c r="W7" s="111"/>
+      <c r="X7" s="111"/>
+      <c r="Y7" s="111"/>
+      <c r="Z7" s="111"/>
+      <c r="AA7" s="112"/>
+      <c r="AB7" s="113" t="s">
         <v>46</v>
       </c>
-      <c r="AC7" s="92"/>
-      <c r="AD7" s="92"/>
-      <c r="AE7" s="92"/>
-      <c r="AF7" s="92"/>
-      <c r="AG7" s="92"/>
-      <c r="AH7" s="93"/>
-      <c r="AI7" s="92" t="s">
+      <c r="AC7" s="111"/>
+      <c r="AD7" s="111"/>
+      <c r="AE7" s="111"/>
+      <c r="AF7" s="111"/>
+      <c r="AG7" s="111"/>
+      <c r="AH7" s="112"/>
+      <c r="AI7" s="111" t="s">
         <v>47</v>
       </c>
-      <c r="AJ7" s="92"/>
-      <c r="AK7" s="92"/>
-      <c r="AL7" s="92"/>
-      <c r="AM7" s="92"/>
-      <c r="AN7" s="92"/>
-      <c r="AO7" s="93"/>
-      <c r="AP7" s="94" t="s">
+      <c r="AJ7" s="111"/>
+      <c r="AK7" s="111"/>
+      <c r="AL7" s="111"/>
+      <c r="AM7" s="111"/>
+      <c r="AN7" s="111"/>
+      <c r="AO7" s="112"/>
+      <c r="AP7" s="113" t="s">
         <v>48</v>
       </c>
-      <c r="AQ7" s="92"/>
-      <c r="AR7" s="92"/>
-      <c r="AS7" s="92"/>
-      <c r="AT7" s="92"/>
-      <c r="AU7" s="92"/>
-      <c r="AV7" s="93"/>
-      <c r="AW7" s="92" t="s">
+      <c r="AQ7" s="111"/>
+      <c r="AR7" s="111"/>
+      <c r="AS7" s="111"/>
+      <c r="AT7" s="111"/>
+      <c r="AU7" s="111"/>
+      <c r="AV7" s="112"/>
+      <c r="AW7" s="111" t="s">
         <v>49</v>
       </c>
-      <c r="AX7" s="92"/>
-      <c r="AY7" s="92"/>
-      <c r="AZ7" s="92"/>
-      <c r="BA7" s="92"/>
-      <c r="BB7" s="92"/>
-      <c r="BC7" s="93"/>
-      <c r="BD7" s="94" t="s">
+      <c r="AX7" s="111"/>
+      <c r="AY7" s="111"/>
+      <c r="AZ7" s="111"/>
+      <c r="BA7" s="111"/>
+      <c r="BB7" s="111"/>
+      <c r="BC7" s="112"/>
+      <c r="BD7" s="113" t="s">
         <v>50</v>
       </c>
-      <c r="BE7" s="92"/>
-      <c r="BF7" s="92"/>
-      <c r="BG7" s="92"/>
-      <c r="BH7" s="92"/>
-      <c r="BI7" s="92"/>
-      <c r="BJ7" s="95"/>
+      <c r="BE7" s="111"/>
+      <c r="BF7" s="111"/>
+      <c r="BG7" s="111"/>
+      <c r="BH7" s="111"/>
+      <c r="BI7" s="111"/>
+      <c r="BJ7" s="114"/>
     </row>
     <row r="8" spans="1:62" ht="45" customHeight="1">
       <c r="A8" s="10" t="s">
@@ -2819,18 +2922,18 @@
       <c r="Y10" s="56"/>
       <c r="Z10" s="57"/>
       <c r="AA10" s="58"/>
-      <c r="AB10" s="53"/>
-      <c r="AC10" s="54"/>
-      <c r="AD10" s="55"/>
-      <c r="AE10" s="55"/>
-      <c r="AF10" s="56"/>
-      <c r="AG10" s="57"/>
-      <c r="AH10" s="58"/>
-      <c r="AI10" s="53"/>
-      <c r="AJ10" s="54"/>
-      <c r="AK10" s="55"/>
-      <c r="AL10" s="55"/>
-      <c r="AM10" s="56"/>
+      <c r="AB10" s="91"/>
+      <c r="AC10" s="92"/>
+      <c r="AD10" s="93"/>
+      <c r="AE10" s="93"/>
+      <c r="AF10" s="94"/>
+      <c r="AG10" s="94"/>
+      <c r="AH10" s="95"/>
+      <c r="AI10" s="91"/>
+      <c r="AJ10" s="92"/>
+      <c r="AK10" s="93"/>
+      <c r="AL10" s="93"/>
+      <c r="AM10" s="94"/>
       <c r="AN10" s="57"/>
       <c r="AO10" s="58"/>
       <c r="AP10" s="53"/>
@@ -2896,18 +2999,18 @@
       <c r="Y11" s="56"/>
       <c r="Z11" s="57"/>
       <c r="AA11" s="58"/>
-      <c r="AB11" s="59"/>
-      <c r="AC11" s="60"/>
-      <c r="AD11" s="61"/>
-      <c r="AE11" s="61"/>
-      <c r="AF11" s="56"/>
-      <c r="AG11" s="57"/>
-      <c r="AH11" s="58"/>
-      <c r="AI11" s="59"/>
-      <c r="AJ11" s="60"/>
-      <c r="AK11" s="61"/>
-      <c r="AL11" s="61"/>
-      <c r="AM11" s="56"/>
+      <c r="AB11" s="96"/>
+      <c r="AC11" s="97"/>
+      <c r="AD11" s="98"/>
+      <c r="AE11" s="98"/>
+      <c r="AF11" s="94"/>
+      <c r="AG11" s="94"/>
+      <c r="AH11" s="95"/>
+      <c r="AI11" s="96"/>
+      <c r="AJ11" s="97"/>
+      <c r="AK11" s="98"/>
+      <c r="AL11" s="98"/>
+      <c r="AM11" s="94"/>
       <c r="AN11" s="57"/>
       <c r="AO11" s="58"/>
       <c r="AP11" s="59"/>
@@ -2971,18 +3074,18 @@
       <c r="Y12" s="63"/>
       <c r="Z12" s="57"/>
       <c r="AA12" s="58"/>
-      <c r="AB12" s="59"/>
-      <c r="AC12" s="60"/>
-      <c r="AD12" s="61"/>
-      <c r="AE12" s="61"/>
-      <c r="AF12" s="63"/>
-      <c r="AG12" s="57"/>
-      <c r="AH12" s="58"/>
-      <c r="AI12" s="59"/>
-      <c r="AJ12" s="60"/>
-      <c r="AK12" s="61"/>
-      <c r="AL12" s="61"/>
-      <c r="AM12" s="63"/>
+      <c r="AB12" s="96"/>
+      <c r="AC12" s="97"/>
+      <c r="AD12" s="98"/>
+      <c r="AE12" s="98"/>
+      <c r="AF12" s="94"/>
+      <c r="AG12" s="94"/>
+      <c r="AH12" s="95"/>
+      <c r="AI12" s="96"/>
+      <c r="AJ12" s="97"/>
+      <c r="AK12" s="98"/>
+      <c r="AL12" s="98"/>
+      <c r="AM12" s="94"/>
       <c r="AN12" s="57"/>
       <c r="AO12" s="58"/>
       <c r="AP12" s="59"/>
@@ -3045,18 +3148,18 @@
       <c r="Y13" s="55"/>
       <c r="Z13" s="66"/>
       <c r="AA13" s="67"/>
-      <c r="AB13" s="59"/>
-      <c r="AC13" s="60"/>
-      <c r="AD13" s="55"/>
-      <c r="AE13" s="55"/>
-      <c r="AF13" s="55"/>
-      <c r="AG13" s="66"/>
-      <c r="AH13" s="67"/>
-      <c r="AI13" s="59"/>
-      <c r="AJ13" s="60"/>
-      <c r="AK13" s="55"/>
-      <c r="AL13" s="55"/>
-      <c r="AM13" s="55"/>
+      <c r="AB13" s="96"/>
+      <c r="AC13" s="97"/>
+      <c r="AD13" s="93"/>
+      <c r="AE13" s="93"/>
+      <c r="AF13" s="93"/>
+      <c r="AG13" s="99"/>
+      <c r="AH13" s="100"/>
+      <c r="AI13" s="96"/>
+      <c r="AJ13" s="97"/>
+      <c r="AK13" s="93"/>
+      <c r="AL13" s="93"/>
+      <c r="AM13" s="93"/>
       <c r="AN13" s="66"/>
       <c r="AO13" s="67"/>
       <c r="AP13" s="59"/>
@@ -3119,18 +3222,18 @@
       <c r="Y14" s="74"/>
       <c r="Z14" s="75"/>
       <c r="AA14" s="76"/>
-      <c r="AB14" s="77"/>
-      <c r="AC14" s="74"/>
-      <c r="AD14" s="74"/>
-      <c r="AE14" s="74"/>
-      <c r="AF14" s="75"/>
-      <c r="AG14" s="75"/>
-      <c r="AH14" s="76"/>
-      <c r="AI14" s="73"/>
-      <c r="AJ14" s="74"/>
-      <c r="AK14" s="74"/>
-      <c r="AL14" s="74"/>
-      <c r="AM14" s="75"/>
+      <c r="AB14" s="101"/>
+      <c r="AC14" s="102"/>
+      <c r="AD14" s="102"/>
+      <c r="AE14" s="102"/>
+      <c r="AF14" s="103"/>
+      <c r="AG14" s="103"/>
+      <c r="AH14" s="104"/>
+      <c r="AI14" s="105"/>
+      <c r="AJ14" s="102"/>
+      <c r="AK14" s="102"/>
+      <c r="AL14" s="102"/>
+      <c r="AM14" s="103"/>
       <c r="AN14" s="75"/>
       <c r="AO14" s="76"/>
       <c r="AP14" s="73"/>
@@ -3192,18 +3295,18 @@
       <c r="Y15" s="56"/>
       <c r="Z15" s="57"/>
       <c r="AA15" s="58"/>
-      <c r="AB15" s="53"/>
-      <c r="AC15" s="54"/>
-      <c r="AD15" s="55"/>
-      <c r="AE15" s="55"/>
-      <c r="AF15" s="56"/>
-      <c r="AG15" s="57"/>
-      <c r="AH15" s="58"/>
-      <c r="AI15" s="53"/>
-      <c r="AJ15" s="54"/>
-      <c r="AK15" s="55"/>
-      <c r="AL15" s="55"/>
-      <c r="AM15" s="56"/>
+      <c r="AB15" s="91"/>
+      <c r="AC15" s="92"/>
+      <c r="AD15" s="93"/>
+      <c r="AE15" s="93"/>
+      <c r="AF15" s="94"/>
+      <c r="AG15" s="94"/>
+      <c r="AH15" s="95"/>
+      <c r="AI15" s="91"/>
+      <c r="AJ15" s="92"/>
+      <c r="AK15" s="93"/>
+      <c r="AL15" s="93"/>
+      <c r="AM15" s="94"/>
       <c r="AN15" s="57"/>
       <c r="AO15" s="58"/>
       <c r="AP15" s="53"/>
@@ -3263,18 +3366,18 @@
       <c r="Y16" s="56"/>
       <c r="Z16" s="57"/>
       <c r="AA16" s="58"/>
-      <c r="AB16" s="59"/>
-      <c r="AC16" s="60"/>
-      <c r="AD16" s="55"/>
-      <c r="AE16" s="55"/>
-      <c r="AF16" s="56"/>
-      <c r="AG16" s="57"/>
-      <c r="AH16" s="58"/>
-      <c r="AI16" s="59"/>
-      <c r="AJ16" s="60"/>
-      <c r="AK16" s="55"/>
-      <c r="AL16" s="55"/>
-      <c r="AM16" s="56"/>
+      <c r="AB16" s="96"/>
+      <c r="AC16" s="97"/>
+      <c r="AD16" s="93"/>
+      <c r="AE16" s="93"/>
+      <c r="AF16" s="94"/>
+      <c r="AG16" s="94"/>
+      <c r="AH16" s="95"/>
+      <c r="AI16" s="96"/>
+      <c r="AJ16" s="97"/>
+      <c r="AK16" s="93"/>
+      <c r="AL16" s="93"/>
+      <c r="AM16" s="94"/>
       <c r="AN16" s="57"/>
       <c r="AO16" s="58"/>
       <c r="AP16" s="59"/>
@@ -3332,18 +3435,18 @@
       <c r="Y17" s="56"/>
       <c r="Z17" s="57"/>
       <c r="AA17" s="58"/>
-      <c r="AB17" s="69"/>
-      <c r="AC17" s="70"/>
-      <c r="AD17" s="55"/>
-      <c r="AE17" s="55"/>
-      <c r="AF17" s="56"/>
-      <c r="AG17" s="57"/>
-      <c r="AH17" s="58"/>
-      <c r="AI17" s="69"/>
-      <c r="AJ17" s="70"/>
-      <c r="AK17" s="55"/>
-      <c r="AL17" s="55"/>
-      <c r="AM17" s="56"/>
+      <c r="AB17" s="106"/>
+      <c r="AC17" s="107"/>
+      <c r="AD17" s="93"/>
+      <c r="AE17" s="93"/>
+      <c r="AF17" s="94"/>
+      <c r="AG17" s="94"/>
+      <c r="AH17" s="95"/>
+      <c r="AI17" s="106"/>
+      <c r="AJ17" s="107"/>
+      <c r="AK17" s="93"/>
+      <c r="AL17" s="93"/>
+      <c r="AM17" s="94"/>
       <c r="AN17" s="57"/>
       <c r="AO17" s="58"/>
       <c r="AP17" s="69"/>
@@ -3377,7 +3480,7 @@
       </c>
       <c r="C18" s="41">
         <f>SUM(C19:C30)</f>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
@@ -3406,18 +3509,18 @@
       <c r="Y18" s="74"/>
       <c r="Z18" s="75"/>
       <c r="AA18" s="76"/>
-      <c r="AB18" s="77"/>
-      <c r="AC18" s="74"/>
-      <c r="AD18" s="74"/>
-      <c r="AE18" s="74"/>
-      <c r="AF18" s="75"/>
-      <c r="AG18" s="75"/>
-      <c r="AH18" s="76"/>
-      <c r="AI18" s="73"/>
-      <c r="AJ18" s="74"/>
-      <c r="AK18" s="74"/>
-      <c r="AL18" s="74"/>
-      <c r="AM18" s="75"/>
+      <c r="AB18" s="101"/>
+      <c r="AC18" s="102"/>
+      <c r="AD18" s="102"/>
+      <c r="AE18" s="102"/>
+      <c r="AF18" s="103"/>
+      <c r="AG18" s="103"/>
+      <c r="AH18" s="104"/>
+      <c r="AI18" s="105"/>
+      <c r="AJ18" s="102"/>
+      <c r="AK18" s="102"/>
+      <c r="AL18" s="102"/>
+      <c r="AM18" s="103"/>
       <c r="AN18" s="75"/>
       <c r="AO18" s="76"/>
       <c r="AP18" s="73"/>
@@ -3477,18 +3580,18 @@
       <c r="Y19" s="56"/>
       <c r="Z19" s="57"/>
       <c r="AA19" s="58"/>
-      <c r="AB19" s="53"/>
-      <c r="AC19" s="54"/>
-      <c r="AD19" s="55"/>
-      <c r="AE19" s="55"/>
-      <c r="AF19" s="56"/>
-      <c r="AG19" s="57"/>
-      <c r="AH19" s="58"/>
-      <c r="AI19" s="53"/>
-      <c r="AJ19" s="54"/>
-      <c r="AK19" s="55"/>
-      <c r="AL19" s="55"/>
-      <c r="AM19" s="56"/>
+      <c r="AB19" s="91"/>
+      <c r="AC19" s="92"/>
+      <c r="AD19" s="93"/>
+      <c r="AE19" s="93"/>
+      <c r="AF19" s="94"/>
+      <c r="AG19" s="94"/>
+      <c r="AH19" s="95"/>
+      <c r="AI19" s="91"/>
+      <c r="AJ19" s="92"/>
+      <c r="AK19" s="93"/>
+      <c r="AL19" s="93"/>
+      <c r="AM19" s="94"/>
       <c r="AN19" s="57"/>
       <c r="AO19" s="58"/>
       <c r="AP19" s="53"/>
@@ -3520,7 +3623,9 @@
       <c r="B20" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="49"/>
+      <c r="C20" s="49">
+        <v>3</v>
+      </c>
       <c r="D20" s="83">
         <f t="shared" ref="D20:D30" si="0">SUM(G20:BJ20)</f>
         <v>0</v>
@@ -3530,15 +3635,15 @@
       <c r="G20" s="59"/>
       <c r="H20" s="60"/>
       <c r="I20" s="55"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="63"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
       <c r="L20" s="57"/>
       <c r="M20" s="58"/>
       <c r="N20" s="59"/>
       <c r="O20" s="60"/>
-      <c r="P20" s="63"/>
+      <c r="P20" s="61"/>
       <c r="Q20" s="63"/>
-      <c r="R20" s="56"/>
+      <c r="R20" s="61"/>
       <c r="S20" s="57"/>
       <c r="T20" s="58"/>
       <c r="U20" s="59"/>
@@ -3548,18 +3653,18 @@
       <c r="Y20" s="56"/>
       <c r="Z20" s="57"/>
       <c r="AA20" s="58"/>
-      <c r="AB20" s="59"/>
-      <c r="AC20" s="60"/>
-      <c r="AD20" s="55"/>
-      <c r="AE20" s="55"/>
-      <c r="AF20" s="56"/>
-      <c r="AG20" s="57"/>
-      <c r="AH20" s="58"/>
-      <c r="AI20" s="59"/>
-      <c r="AJ20" s="60"/>
-      <c r="AK20" s="55"/>
-      <c r="AL20" s="55"/>
-      <c r="AM20" s="56"/>
+      <c r="AB20" s="96"/>
+      <c r="AC20" s="97"/>
+      <c r="AD20" s="93"/>
+      <c r="AE20" s="93"/>
+      <c r="AF20" s="94"/>
+      <c r="AG20" s="94"/>
+      <c r="AH20" s="95"/>
+      <c r="AI20" s="96"/>
+      <c r="AJ20" s="97"/>
+      <c r="AK20" s="93"/>
+      <c r="AL20" s="93"/>
+      <c r="AM20" s="94"/>
       <c r="AN20" s="57"/>
       <c r="AO20" s="58"/>
       <c r="AP20" s="59"/>
@@ -3591,7 +3696,9 @@
       <c r="B21" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="49"/>
+      <c r="C21" s="49">
+        <v>6</v>
+      </c>
       <c r="D21" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3601,7 +3708,7 @@
       <c r="G21" s="59"/>
       <c r="H21" s="60"/>
       <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
+      <c r="J21" s="56"/>
       <c r="K21" s="56"/>
       <c r="L21" s="57"/>
       <c r="M21" s="58"/>
@@ -3614,23 +3721,23 @@
       <c r="T21" s="58"/>
       <c r="U21" s="59"/>
       <c r="V21" s="60"/>
-      <c r="W21" s="63"/>
+      <c r="W21" s="55"/>
       <c r="X21" s="55"/>
-      <c r="Y21" s="56"/>
+      <c r="Y21" s="55"/>
       <c r="Z21" s="57"/>
       <c r="AA21" s="58"/>
-      <c r="AB21" s="59"/>
-      <c r="AC21" s="60"/>
-      <c r="AD21" s="55"/>
-      <c r="AE21" s="55"/>
-      <c r="AF21" s="56"/>
-      <c r="AG21" s="57"/>
-      <c r="AH21" s="58"/>
-      <c r="AI21" s="59"/>
-      <c r="AJ21" s="60"/>
-      <c r="AK21" s="55"/>
-      <c r="AL21" s="55"/>
-      <c r="AM21" s="56"/>
+      <c r="AB21" s="96"/>
+      <c r="AC21" s="97"/>
+      <c r="AD21" s="93"/>
+      <c r="AE21" s="93"/>
+      <c r="AF21" s="94"/>
+      <c r="AG21" s="94"/>
+      <c r="AH21" s="95"/>
+      <c r="AI21" s="96"/>
+      <c r="AJ21" s="97"/>
+      <c r="AK21" s="93"/>
+      <c r="AL21" s="93"/>
+      <c r="AM21" s="94"/>
       <c r="AN21" s="57"/>
       <c r="AO21" s="58"/>
       <c r="AP21" s="59"/>
@@ -3662,7 +3769,9 @@
       <c r="B22" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="49"/>
+      <c r="C22" s="49">
+        <v>3</v>
+      </c>
       <c r="D22" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3680,28 +3789,28 @@
       <c r="O22" s="60"/>
       <c r="P22" s="55"/>
       <c r="Q22" s="55"/>
-      <c r="R22" s="55"/>
+      <c r="R22" s="63"/>
       <c r="S22" s="57"/>
       <c r="T22" s="58"/>
       <c r="U22" s="59"/>
       <c r="V22" s="60"/>
-      <c r="W22" s="63"/>
-      <c r="X22" s="63"/>
-      <c r="Y22" s="56"/>
+      <c r="W22" s="55"/>
+      <c r="X22" s="55"/>
+      <c r="Y22" s="55"/>
       <c r="Z22" s="57"/>
       <c r="AA22" s="58"/>
-      <c r="AB22" s="59"/>
-      <c r="AC22" s="60"/>
-      <c r="AD22" s="55"/>
-      <c r="AE22" s="55"/>
-      <c r="AF22" s="56"/>
-      <c r="AG22" s="57"/>
-      <c r="AH22" s="58"/>
-      <c r="AI22" s="59"/>
-      <c r="AJ22" s="60"/>
-      <c r="AK22" s="55"/>
-      <c r="AL22" s="55"/>
-      <c r="AM22" s="56"/>
+      <c r="AB22" s="96"/>
+      <c r="AC22" s="97"/>
+      <c r="AD22" s="93"/>
+      <c r="AE22" s="93"/>
+      <c r="AF22" s="94"/>
+      <c r="AG22" s="94"/>
+      <c r="AH22" s="95"/>
+      <c r="AI22" s="96"/>
+      <c r="AJ22" s="97"/>
+      <c r="AK22" s="93"/>
+      <c r="AL22" s="93"/>
+      <c r="AM22" s="94"/>
       <c r="AN22" s="57"/>
       <c r="AO22" s="58"/>
       <c r="AP22" s="59"/>
@@ -3733,7 +3842,9 @@
       <c r="B23" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="49"/>
+      <c r="C23" s="49">
+        <v>3</v>
+      </c>
       <c r="D23" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3751,28 +3862,28 @@
       <c r="O23" s="60"/>
       <c r="P23" s="61"/>
       <c r="Q23" s="61"/>
-      <c r="R23" s="56"/>
+      <c r="R23" s="63"/>
       <c r="S23" s="57"/>
       <c r="T23" s="58"/>
       <c r="U23" s="59"/>
       <c r="V23" s="60"/>
-      <c r="W23" s="61"/>
-      <c r="X23" s="61"/>
-      <c r="Y23" s="63"/>
+      <c r="W23" s="55"/>
+      <c r="X23" s="55"/>
+      <c r="Y23" s="55"/>
       <c r="Z23" s="57"/>
       <c r="AA23" s="58"/>
-      <c r="AB23" s="59"/>
-      <c r="AC23" s="60"/>
-      <c r="AD23" s="61"/>
-      <c r="AE23" s="61"/>
-      <c r="AF23" s="56"/>
-      <c r="AG23" s="57"/>
-      <c r="AH23" s="58"/>
-      <c r="AI23" s="59"/>
-      <c r="AJ23" s="60"/>
-      <c r="AK23" s="61"/>
-      <c r="AL23" s="61"/>
-      <c r="AM23" s="56"/>
+      <c r="AB23" s="96"/>
+      <c r="AC23" s="97"/>
+      <c r="AD23" s="98"/>
+      <c r="AE23" s="98"/>
+      <c r="AF23" s="94"/>
+      <c r="AG23" s="94"/>
+      <c r="AH23" s="95"/>
+      <c r="AI23" s="96"/>
+      <c r="AJ23" s="97"/>
+      <c r="AK23" s="98"/>
+      <c r="AL23" s="98"/>
+      <c r="AM23" s="94"/>
       <c r="AN23" s="57"/>
       <c r="AO23" s="58"/>
       <c r="AP23" s="59"/>
@@ -3804,7 +3915,9 @@
       <c r="B24" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="49"/>
+      <c r="C24" s="49">
+        <v>3</v>
+      </c>
       <c r="D24" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3827,23 +3940,23 @@
       <c r="T24" s="58"/>
       <c r="U24" s="59"/>
       <c r="V24" s="60"/>
-      <c r="W24" s="55"/>
+      <c r="W24" s="63"/>
       <c r="X24" s="55"/>
       <c r="Y24" s="56"/>
       <c r="Z24" s="57"/>
       <c r="AA24" s="58"/>
-      <c r="AB24" s="59"/>
-      <c r="AC24" s="60"/>
-      <c r="AD24" s="63"/>
-      <c r="AE24" s="63"/>
-      <c r="AF24" s="63"/>
-      <c r="AG24" s="57"/>
-      <c r="AH24" s="58"/>
-      <c r="AI24" s="59"/>
-      <c r="AJ24" s="60"/>
-      <c r="AK24" s="55"/>
-      <c r="AL24" s="55"/>
-      <c r="AM24" s="56"/>
+      <c r="AB24" s="96"/>
+      <c r="AC24" s="97"/>
+      <c r="AD24" s="93"/>
+      <c r="AE24" s="93"/>
+      <c r="AF24" s="93"/>
+      <c r="AG24" s="94"/>
+      <c r="AH24" s="95"/>
+      <c r="AI24" s="96"/>
+      <c r="AJ24" s="97"/>
+      <c r="AK24" s="93"/>
+      <c r="AL24" s="93"/>
+      <c r="AM24" s="94"/>
       <c r="AN24" s="57"/>
       <c r="AO24" s="58"/>
       <c r="AP24" s="59"/>
@@ -3875,7 +3988,9 @@
       <c r="B25" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="49"/>
+      <c r="C25" s="49">
+        <v>6</v>
+      </c>
       <c r="D25" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3898,30 +4013,30 @@
       <c r="T25" s="58"/>
       <c r="U25" s="59"/>
       <c r="V25" s="60"/>
-      <c r="W25" s="55"/>
-      <c r="X25" s="55"/>
+      <c r="W25" s="63"/>
+      <c r="X25" s="63"/>
       <c r="Y25" s="56"/>
       <c r="Z25" s="57"/>
       <c r="AA25" s="58"/>
-      <c r="AB25" s="59"/>
-      <c r="AC25" s="60"/>
-      <c r="AD25" s="55"/>
-      <c r="AE25" s="55"/>
-      <c r="AF25" s="63"/>
-      <c r="AG25" s="57"/>
-      <c r="AH25" s="58"/>
-      <c r="AI25" s="59"/>
-      <c r="AJ25" s="60"/>
-      <c r="AK25" s="55"/>
-      <c r="AL25" s="55"/>
-      <c r="AM25" s="56"/>
+      <c r="AB25" s="96"/>
+      <c r="AC25" s="97"/>
+      <c r="AD25" s="93"/>
+      <c r="AE25" s="93"/>
+      <c r="AF25" s="93"/>
+      <c r="AG25" s="94"/>
+      <c r="AH25" s="95"/>
+      <c r="AI25" s="96"/>
+      <c r="AJ25" s="97"/>
+      <c r="AK25" s="93"/>
+      <c r="AL25" s="93"/>
+      <c r="AM25" s="94"/>
       <c r="AN25" s="57"/>
       <c r="AO25" s="58"/>
       <c r="AP25" s="59"/>
       <c r="AQ25" s="60"/>
       <c r="AR25" s="55"/>
       <c r="AS25" s="55"/>
-      <c r="AT25" s="56"/>
+      <c r="AT25" s="55"/>
       <c r="AU25" s="57"/>
       <c r="AV25" s="58"/>
       <c r="AW25" s="59"/>
@@ -3946,7 +4061,9 @@
       <c r="B26" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="49"/>
+      <c r="C26" s="49">
+        <v>14</v>
+      </c>
       <c r="D26" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3970,29 +4087,29 @@
       <c r="U26" s="59"/>
       <c r="V26" s="60"/>
       <c r="W26" s="55"/>
-      <c r="X26" s="55"/>
-      <c r="Y26" s="56"/>
+      <c r="X26" s="63"/>
+      <c r="Y26" s="63"/>
       <c r="Z26" s="57"/>
       <c r="AA26" s="58"/>
-      <c r="AB26" s="59"/>
-      <c r="AC26" s="60"/>
-      <c r="AD26" s="55"/>
-      <c r="AE26" s="55"/>
-      <c r="AF26" s="56"/>
-      <c r="AG26" s="57"/>
-      <c r="AH26" s="58"/>
-      <c r="AI26" s="59"/>
-      <c r="AJ26" s="60"/>
-      <c r="AK26" s="55"/>
-      <c r="AL26" s="55"/>
-      <c r="AM26" s="56"/>
+      <c r="AB26" s="96"/>
+      <c r="AC26" s="97"/>
+      <c r="AD26" s="93"/>
+      <c r="AE26" s="93"/>
+      <c r="AF26" s="93"/>
+      <c r="AG26" s="94"/>
+      <c r="AH26" s="95"/>
+      <c r="AI26" s="96"/>
+      <c r="AJ26" s="97"/>
+      <c r="AK26" s="93"/>
+      <c r="AL26" s="93"/>
+      <c r="AM26" s="94"/>
       <c r="AN26" s="57"/>
       <c r="AO26" s="58"/>
       <c r="AP26" s="59"/>
       <c r="AQ26" s="60"/>
-      <c r="AR26" s="63"/>
+      <c r="AR26" s="55"/>
       <c r="AS26" s="55"/>
-      <c r="AT26" s="56"/>
+      <c r="AT26" s="55"/>
       <c r="AU26" s="57"/>
       <c r="AV26" s="58"/>
       <c r="AW26" s="59"/>
@@ -4017,7 +4134,9 @@
       <c r="B27" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="49"/>
+      <c r="C27" s="49">
+        <v>6</v>
+      </c>
       <c r="D27" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4045,25 +4164,25 @@
       <c r="Y27" s="56"/>
       <c r="Z27" s="57"/>
       <c r="AA27" s="58"/>
-      <c r="AB27" s="59"/>
-      <c r="AC27" s="60"/>
-      <c r="AD27" s="55"/>
-      <c r="AE27" s="55"/>
-      <c r="AF27" s="56"/>
-      <c r="AG27" s="57"/>
-      <c r="AH27" s="58"/>
-      <c r="AI27" s="59"/>
-      <c r="AJ27" s="60"/>
-      <c r="AK27" s="55"/>
-      <c r="AL27" s="55"/>
-      <c r="AM27" s="56"/>
+      <c r="AB27" s="96"/>
+      <c r="AC27" s="97"/>
+      <c r="AD27" s="93"/>
+      <c r="AE27" s="93"/>
+      <c r="AF27" s="94"/>
+      <c r="AG27" s="94"/>
+      <c r="AH27" s="95"/>
+      <c r="AI27" s="96"/>
+      <c r="AJ27" s="97"/>
+      <c r="AK27" s="93"/>
+      <c r="AL27" s="93"/>
+      <c r="AM27" s="94"/>
       <c r="AN27" s="57"/>
       <c r="AO27" s="58"/>
       <c r="AP27" s="59"/>
       <c r="AQ27" s="60"/>
-      <c r="AR27" s="55"/>
-      <c r="AS27" s="63"/>
-      <c r="AT27" s="56"/>
+      <c r="AR27" s="63"/>
+      <c r="AS27" s="55"/>
+      <c r="AT27" s="55"/>
       <c r="AU27" s="57"/>
       <c r="AV27" s="58"/>
       <c r="AW27" s="59"/>
@@ -4085,8 +4204,12 @@
       <c r="A28" s="12">
         <v>310</v>
       </c>
-      <c r="B28" s="46"/>
-      <c r="C28" s="49"/>
+      <c r="B28" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="49">
+        <v>2</v>
+      </c>
       <c r="D28" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4114,25 +4237,25 @@
       <c r="Y28" s="56"/>
       <c r="Z28" s="57"/>
       <c r="AA28" s="58"/>
-      <c r="AB28" s="59"/>
-      <c r="AC28" s="60"/>
-      <c r="AD28" s="55"/>
-      <c r="AE28" s="55"/>
-      <c r="AF28" s="56"/>
-      <c r="AG28" s="57"/>
-      <c r="AH28" s="58"/>
-      <c r="AI28" s="59"/>
-      <c r="AJ28" s="60"/>
-      <c r="AK28" s="55"/>
-      <c r="AL28" s="55"/>
-      <c r="AM28" s="56"/>
+      <c r="AB28" s="96"/>
+      <c r="AC28" s="97"/>
+      <c r="AD28" s="93"/>
+      <c r="AE28" s="93"/>
+      <c r="AF28" s="94"/>
+      <c r="AG28" s="94"/>
+      <c r="AH28" s="95"/>
+      <c r="AI28" s="96"/>
+      <c r="AJ28" s="97"/>
+      <c r="AK28" s="93"/>
+      <c r="AL28" s="93"/>
+      <c r="AM28" s="94"/>
       <c r="AN28" s="57"/>
       <c r="AO28" s="58"/>
       <c r="AP28" s="59"/>
       <c r="AQ28" s="60"/>
-      <c r="AR28" s="55"/>
+      <c r="AR28" s="63"/>
       <c r="AS28" s="55"/>
-      <c r="AT28" s="56"/>
+      <c r="AT28" s="55"/>
       <c r="AU28" s="57"/>
       <c r="AV28" s="58"/>
       <c r="AW28" s="59"/>
@@ -4154,8 +4277,12 @@
       <c r="A29" s="12">
         <v>311</v>
       </c>
-      <c r="B29" s="46"/>
-      <c r="C29" s="49"/>
+      <c r="B29" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="49">
+        <v>6</v>
+      </c>
       <c r="D29" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4183,24 +4310,24 @@
       <c r="Y29" s="56"/>
       <c r="Z29" s="57"/>
       <c r="AA29" s="58"/>
-      <c r="AB29" s="71"/>
-      <c r="AC29" s="72"/>
-      <c r="AD29" s="55"/>
-      <c r="AE29" s="55"/>
-      <c r="AF29" s="56"/>
-      <c r="AG29" s="57"/>
-      <c r="AH29" s="58"/>
-      <c r="AI29" s="71"/>
-      <c r="AJ29" s="72"/>
-      <c r="AK29" s="55"/>
-      <c r="AL29" s="55"/>
-      <c r="AM29" s="56"/>
+      <c r="AB29" s="108"/>
+      <c r="AC29" s="109"/>
+      <c r="AD29" s="93"/>
+      <c r="AE29" s="93"/>
+      <c r="AF29" s="94"/>
+      <c r="AG29" s="94"/>
+      <c r="AH29" s="95"/>
+      <c r="AI29" s="108"/>
+      <c r="AJ29" s="109"/>
+      <c r="AK29" s="93"/>
+      <c r="AL29" s="93"/>
+      <c r="AM29" s="94"/>
       <c r="AN29" s="57"/>
       <c r="AO29" s="58"/>
       <c r="AP29" s="71"/>
       <c r="AQ29" s="72"/>
       <c r="AR29" s="55"/>
-      <c r="AS29" s="55"/>
+      <c r="AS29" s="63"/>
       <c r="AT29" s="56"/>
       <c r="AU29" s="57"/>
       <c r="AV29" s="58"/>
@@ -4223,8 +4350,12 @@
       <c r="A30" s="12">
         <v>312</v>
       </c>
-      <c r="B30" s="46"/>
-      <c r="C30" s="49"/>
+      <c r="B30" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="49">
+        <v>12</v>
+      </c>
       <c r="D30" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4252,25 +4383,25 @@
       <c r="Y30" s="56"/>
       <c r="Z30" s="57"/>
       <c r="AA30" s="58"/>
-      <c r="AB30" s="69"/>
-      <c r="AC30" s="70"/>
-      <c r="AD30" s="55"/>
-      <c r="AE30" s="55"/>
-      <c r="AF30" s="56"/>
-      <c r="AG30" s="57"/>
-      <c r="AH30" s="58"/>
-      <c r="AI30" s="69"/>
-      <c r="AJ30" s="70"/>
-      <c r="AK30" s="55"/>
-      <c r="AL30" s="55"/>
-      <c r="AM30" s="56"/>
+      <c r="AB30" s="106"/>
+      <c r="AC30" s="107"/>
+      <c r="AD30" s="93"/>
+      <c r="AE30" s="93"/>
+      <c r="AF30" s="94"/>
+      <c r="AG30" s="94"/>
+      <c r="AH30" s="95"/>
+      <c r="AI30" s="106"/>
+      <c r="AJ30" s="107"/>
+      <c r="AK30" s="93"/>
+      <c r="AL30" s="93"/>
+      <c r="AM30" s="94"/>
       <c r="AN30" s="57"/>
       <c r="AO30" s="58"/>
       <c r="AP30" s="69"/>
       <c r="AQ30" s="70"/>
       <c r="AR30" s="55"/>
       <c r="AS30" s="55"/>
-      <c r="AT30" s="56"/>
+      <c r="AT30" s="63"/>
       <c r="AU30" s="57"/>
       <c r="AV30" s="58"/>
       <c r="AW30" s="69"/>
@@ -4326,18 +4457,18 @@
       <c r="Y31" s="74"/>
       <c r="Z31" s="75"/>
       <c r="AA31" s="76"/>
-      <c r="AB31" s="77"/>
-      <c r="AC31" s="74"/>
-      <c r="AD31" s="74"/>
-      <c r="AE31" s="74"/>
-      <c r="AF31" s="75"/>
-      <c r="AG31" s="75"/>
-      <c r="AH31" s="76"/>
-      <c r="AI31" s="73"/>
-      <c r="AJ31" s="74"/>
-      <c r="AK31" s="74"/>
-      <c r="AL31" s="74"/>
-      <c r="AM31" s="75"/>
+      <c r="AB31" s="101"/>
+      <c r="AC31" s="102"/>
+      <c r="AD31" s="102"/>
+      <c r="AE31" s="102"/>
+      <c r="AF31" s="103"/>
+      <c r="AG31" s="103"/>
+      <c r="AH31" s="104"/>
+      <c r="AI31" s="105"/>
+      <c r="AJ31" s="102"/>
+      <c r="AK31" s="102"/>
+      <c r="AL31" s="102"/>
+      <c r="AM31" s="103"/>
       <c r="AN31" s="75"/>
       <c r="AO31" s="76"/>
       <c r="AP31" s="73"/>
@@ -4397,18 +4528,18 @@
       <c r="Y32" s="56"/>
       <c r="Z32" s="57"/>
       <c r="AA32" s="58"/>
-      <c r="AB32" s="53"/>
-      <c r="AC32" s="54"/>
-      <c r="AD32" s="55"/>
-      <c r="AE32" s="55"/>
-      <c r="AF32" s="56"/>
-      <c r="AG32" s="57"/>
-      <c r="AH32" s="58"/>
-      <c r="AI32" s="53"/>
-      <c r="AJ32" s="54"/>
-      <c r="AK32" s="55"/>
-      <c r="AL32" s="55"/>
-      <c r="AM32" s="56"/>
+      <c r="AB32" s="91"/>
+      <c r="AC32" s="92"/>
+      <c r="AD32" s="93"/>
+      <c r="AE32" s="93"/>
+      <c r="AF32" s="94"/>
+      <c r="AG32" s="94"/>
+      <c r="AH32" s="95"/>
+      <c r="AI32" s="91"/>
+      <c r="AJ32" s="92"/>
+      <c r="AK32" s="93"/>
+      <c r="AL32" s="93"/>
+      <c r="AM32" s="94"/>
       <c r="AN32" s="57"/>
       <c r="AO32" s="58"/>
       <c r="AP32" s="53"/>
@@ -4468,18 +4599,18 @@
       <c r="Y33" s="56"/>
       <c r="Z33" s="57"/>
       <c r="AA33" s="58"/>
-      <c r="AB33" s="59"/>
-      <c r="AC33" s="60"/>
-      <c r="AD33" s="55"/>
-      <c r="AE33" s="55"/>
-      <c r="AF33" s="56"/>
-      <c r="AG33" s="57"/>
-      <c r="AH33" s="58"/>
-      <c r="AI33" s="59"/>
-      <c r="AJ33" s="60"/>
-      <c r="AK33" s="55"/>
-      <c r="AL33" s="55"/>
-      <c r="AM33" s="56"/>
+      <c r="AB33" s="96"/>
+      <c r="AC33" s="97"/>
+      <c r="AD33" s="93"/>
+      <c r="AE33" s="93"/>
+      <c r="AF33" s="94"/>
+      <c r="AG33" s="94"/>
+      <c r="AH33" s="95"/>
+      <c r="AI33" s="96"/>
+      <c r="AJ33" s="97"/>
+      <c r="AK33" s="93"/>
+      <c r="AL33" s="93"/>
+      <c r="AM33" s="94"/>
       <c r="AN33" s="57"/>
       <c r="AO33" s="58"/>
       <c r="AP33" s="59"/>
@@ -4539,18 +4670,18 @@
       <c r="Y34" s="56"/>
       <c r="Z34" s="57"/>
       <c r="AA34" s="58"/>
-      <c r="AB34" s="59"/>
-      <c r="AC34" s="60"/>
-      <c r="AD34" s="55"/>
-      <c r="AE34" s="55"/>
-      <c r="AF34" s="56"/>
-      <c r="AG34" s="57"/>
-      <c r="AH34" s="58"/>
-      <c r="AI34" s="59"/>
-      <c r="AJ34" s="60"/>
-      <c r="AK34" s="55"/>
-      <c r="AL34" s="55"/>
-      <c r="AM34" s="56"/>
+      <c r="AB34" s="96"/>
+      <c r="AC34" s="97"/>
+      <c r="AD34" s="93"/>
+      <c r="AE34" s="93"/>
+      <c r="AF34" s="94"/>
+      <c r="AG34" s="94"/>
+      <c r="AH34" s="95"/>
+      <c r="AI34" s="96"/>
+      <c r="AJ34" s="97"/>
+      <c r="AK34" s="93"/>
+      <c r="AL34" s="93"/>
+      <c r="AM34" s="94"/>
       <c r="AN34" s="57"/>
       <c r="AO34" s="58"/>
       <c r="AP34" s="59"/>
@@ -4608,18 +4739,18 @@
       <c r="Y35" s="56"/>
       <c r="Z35" s="57"/>
       <c r="AA35" s="58"/>
-      <c r="AB35" s="69"/>
-      <c r="AC35" s="70"/>
-      <c r="AD35" s="55"/>
-      <c r="AE35" s="55"/>
-      <c r="AF35" s="56"/>
-      <c r="AG35" s="57"/>
-      <c r="AH35" s="58"/>
-      <c r="AI35" s="69"/>
-      <c r="AJ35" s="70"/>
-      <c r="AK35" s="55"/>
-      <c r="AL35" s="55"/>
-      <c r="AM35" s="56"/>
+      <c r="AB35" s="106"/>
+      <c r="AC35" s="107"/>
+      <c r="AD35" s="93"/>
+      <c r="AE35" s="93"/>
+      <c r="AF35" s="94"/>
+      <c r="AG35" s="94"/>
+      <c r="AH35" s="95"/>
+      <c r="AI35" s="106"/>
+      <c r="AJ35" s="107"/>
+      <c r="AK35" s="93"/>
+      <c r="AL35" s="93"/>
+      <c r="AM35" s="94"/>
       <c r="AN35" s="57"/>
       <c r="AO35" s="58"/>
       <c r="AP35" s="69"/>
@@ -4653,7 +4784,7 @@
       </c>
       <c r="C36" s="41">
         <f>SUM(C37:C38)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D36" s="42">
         <f>SUM(D37:D38)</f>
@@ -4682,18 +4813,18 @@
       <c r="Y36" s="74"/>
       <c r="Z36" s="75"/>
       <c r="AA36" s="76"/>
-      <c r="AB36" s="77"/>
-      <c r="AC36" s="74"/>
-      <c r="AD36" s="74"/>
-      <c r="AE36" s="74"/>
-      <c r="AF36" s="75"/>
-      <c r="AG36" s="75"/>
-      <c r="AH36" s="76"/>
-      <c r="AI36" s="73"/>
-      <c r="AJ36" s="74"/>
-      <c r="AK36" s="74"/>
-      <c r="AL36" s="74"/>
-      <c r="AM36" s="75"/>
+      <c r="AB36" s="101"/>
+      <c r="AC36" s="102"/>
+      <c r="AD36" s="102"/>
+      <c r="AE36" s="102"/>
+      <c r="AF36" s="103"/>
+      <c r="AG36" s="103"/>
+      <c r="AH36" s="104"/>
+      <c r="AI36" s="105"/>
+      <c r="AJ36" s="102"/>
+      <c r="AK36" s="102"/>
+      <c r="AL36" s="102"/>
+      <c r="AM36" s="103"/>
       <c r="AN36" s="75"/>
       <c r="AO36" s="76"/>
       <c r="AP36" s="73"/>
@@ -4725,7 +4856,9 @@
       <c r="B37" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="49"/>
+      <c r="C37" s="49">
+        <v>11</v>
+      </c>
       <c r="D37" s="83">
         <f>SUM(G37:BJ37)</f>
         <v>0</v>
@@ -4753,18 +4886,18 @@
       <c r="Y37" s="56"/>
       <c r="Z37" s="57"/>
       <c r="AA37" s="58"/>
-      <c r="AB37" s="53"/>
-      <c r="AC37" s="54"/>
-      <c r="AD37" s="55"/>
-      <c r="AE37" s="55"/>
-      <c r="AF37" s="56"/>
-      <c r="AG37" s="57"/>
-      <c r="AH37" s="58"/>
-      <c r="AI37" s="53"/>
-      <c r="AJ37" s="54"/>
-      <c r="AK37" s="55"/>
-      <c r="AL37" s="55"/>
-      <c r="AM37" s="56"/>
+      <c r="AB37" s="91"/>
+      <c r="AC37" s="92"/>
+      <c r="AD37" s="93"/>
+      <c r="AE37" s="93"/>
+      <c r="AF37" s="94"/>
+      <c r="AG37" s="94"/>
+      <c r="AH37" s="95"/>
+      <c r="AI37" s="91"/>
+      <c r="AJ37" s="92"/>
+      <c r="AK37" s="93"/>
+      <c r="AL37" s="93"/>
+      <c r="AM37" s="94"/>
       <c r="AN37" s="57"/>
       <c r="AO37" s="58"/>
       <c r="AP37" s="53"/>
@@ -4822,18 +4955,18 @@
       <c r="Y38" s="56"/>
       <c r="Z38" s="57"/>
       <c r="AA38" s="58"/>
-      <c r="AB38" s="69"/>
-      <c r="AC38" s="70"/>
-      <c r="AD38" s="55"/>
-      <c r="AE38" s="55"/>
-      <c r="AF38" s="56"/>
-      <c r="AG38" s="57"/>
-      <c r="AH38" s="58"/>
-      <c r="AI38" s="69"/>
-      <c r="AJ38" s="70"/>
-      <c r="AK38" s="55"/>
-      <c r="AL38" s="55"/>
-      <c r="AM38" s="56"/>
+      <c r="AB38" s="106"/>
+      <c r="AC38" s="107"/>
+      <c r="AD38" s="93"/>
+      <c r="AE38" s="93"/>
+      <c r="AF38" s="94"/>
+      <c r="AG38" s="94"/>
+      <c r="AH38" s="95"/>
+      <c r="AI38" s="106"/>
+      <c r="AJ38" s="107"/>
+      <c r="AK38" s="93"/>
+      <c r="AL38" s="93"/>
+      <c r="AM38" s="94"/>
       <c r="AN38" s="57"/>
       <c r="AO38" s="58"/>
       <c r="AP38" s="69"/>
@@ -4896,18 +5029,18 @@
       <c r="Y39" s="74"/>
       <c r="Z39" s="75"/>
       <c r="AA39" s="76"/>
-      <c r="AB39" s="77"/>
-      <c r="AC39" s="74"/>
-      <c r="AD39" s="74"/>
-      <c r="AE39" s="74"/>
-      <c r="AF39" s="75"/>
-      <c r="AG39" s="75"/>
-      <c r="AH39" s="76"/>
-      <c r="AI39" s="73"/>
-      <c r="AJ39" s="74"/>
-      <c r="AK39" s="74"/>
-      <c r="AL39" s="74"/>
-      <c r="AM39" s="75"/>
+      <c r="AB39" s="101"/>
+      <c r="AC39" s="102"/>
+      <c r="AD39" s="102"/>
+      <c r="AE39" s="102"/>
+      <c r="AF39" s="103"/>
+      <c r="AG39" s="103"/>
+      <c r="AH39" s="104"/>
+      <c r="AI39" s="105"/>
+      <c r="AJ39" s="102"/>
+      <c r="AK39" s="102"/>
+      <c r="AL39" s="102"/>
+      <c r="AM39" s="103"/>
       <c r="AN39" s="75"/>
       <c r="AO39" s="76"/>
       <c r="AP39" s="73"/>
@@ -4967,18 +5100,18 @@
       <c r="Y40" s="56"/>
       <c r="Z40" s="57"/>
       <c r="AA40" s="58"/>
-      <c r="AB40" s="53"/>
-      <c r="AC40" s="54"/>
-      <c r="AD40" s="55"/>
-      <c r="AE40" s="55"/>
-      <c r="AF40" s="56"/>
-      <c r="AG40" s="57"/>
-      <c r="AH40" s="58"/>
-      <c r="AI40" s="53"/>
-      <c r="AJ40" s="54"/>
-      <c r="AK40" s="55"/>
-      <c r="AL40" s="55"/>
-      <c r="AM40" s="56"/>
+      <c r="AB40" s="91"/>
+      <c r="AC40" s="92"/>
+      <c r="AD40" s="93"/>
+      <c r="AE40" s="93"/>
+      <c r="AF40" s="94"/>
+      <c r="AG40" s="94"/>
+      <c r="AH40" s="95"/>
+      <c r="AI40" s="91"/>
+      <c r="AJ40" s="92"/>
+      <c r="AK40" s="93"/>
+      <c r="AL40" s="93"/>
+      <c r="AM40" s="94"/>
       <c r="AN40" s="57"/>
       <c r="AO40" s="58"/>
       <c r="AP40" s="53"/>
@@ -5038,18 +5171,18 @@
       <c r="Y41" s="56"/>
       <c r="Z41" s="57"/>
       <c r="AA41" s="58"/>
-      <c r="AB41" s="59"/>
-      <c r="AC41" s="60"/>
-      <c r="AD41" s="55"/>
-      <c r="AE41" s="55"/>
-      <c r="AF41" s="56"/>
-      <c r="AG41" s="57"/>
-      <c r="AH41" s="58"/>
-      <c r="AI41" s="59"/>
-      <c r="AJ41" s="60"/>
-      <c r="AK41" s="55"/>
-      <c r="AL41" s="55"/>
-      <c r="AM41" s="56"/>
+      <c r="AB41" s="96"/>
+      <c r="AC41" s="97"/>
+      <c r="AD41" s="93"/>
+      <c r="AE41" s="93"/>
+      <c r="AF41" s="94"/>
+      <c r="AG41" s="94"/>
+      <c r="AH41" s="95"/>
+      <c r="AI41" s="96"/>
+      <c r="AJ41" s="97"/>
+      <c r="AK41" s="93"/>
+      <c r="AL41" s="93"/>
+      <c r="AM41" s="94"/>
       <c r="AN41" s="57"/>
       <c r="AO41" s="58"/>
       <c r="AP41" s="59"/>
@@ -5107,18 +5240,18 @@
       <c r="Y42" s="56"/>
       <c r="Z42" s="57"/>
       <c r="AA42" s="58"/>
-      <c r="AB42" s="69"/>
-      <c r="AC42" s="70"/>
-      <c r="AD42" s="55"/>
-      <c r="AE42" s="55"/>
-      <c r="AF42" s="56"/>
-      <c r="AG42" s="57"/>
-      <c r="AH42" s="58"/>
-      <c r="AI42" s="69"/>
-      <c r="AJ42" s="70"/>
-      <c r="AK42" s="55"/>
-      <c r="AL42" s="55"/>
-      <c r="AM42" s="56"/>
+      <c r="AB42" s="106"/>
+      <c r="AC42" s="107"/>
+      <c r="AD42" s="93"/>
+      <c r="AE42" s="93"/>
+      <c r="AF42" s="94"/>
+      <c r="AG42" s="94"/>
+      <c r="AH42" s="95"/>
+      <c r="AI42" s="106"/>
+      <c r="AJ42" s="107"/>
+      <c r="AK42" s="93"/>
+      <c r="AL42" s="93"/>
+      <c r="AM42" s="94"/>
       <c r="AN42" s="57"/>
       <c r="AO42" s="58"/>
       <c r="AP42" s="69"/>
@@ -5150,7 +5283,7 @@
       </c>
       <c r="C43" s="37">
         <f>C39+C36+C31+C18+C14+C9</f>
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
@@ -5429,10 +5562,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16" thickBot="1"/>
     <row r="2" spans="1:6" ht="18" thickTop="1" thickBot="1">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="99"/>
+      <c r="B2" s="118"/>
       <c r="C2" s="79" t="s">
         <v>14</v>
       </c>
@@ -5441,11 +5574,11 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" thickTop="1" thickBot="1">
-      <c r="A3" s="96" t="str">
+      <c r="A3" s="115" t="str">
         <f>Zeitplanung!B9</f>
         <v>Administration, Planung</v>
       </c>
-      <c r="B3" s="97"/>
+      <c r="B3" s="116"/>
       <c r="C3" s="80">
         <f>Zeitplanung!C9</f>
         <v>5</v>
@@ -5458,11 +5591,11 @@
       <c r="F3" s="81"/>
     </row>
     <row r="4" spans="1:6" ht="18" thickTop="1" thickBot="1">
-      <c r="A4" s="96" t="str">
+      <c r="A4" s="115" t="str">
         <f>Zeitplanung!B14</f>
         <v>Analyse &amp; Design</v>
       </c>
-      <c r="B4" s="97"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="80">
         <f>Zeitplanung!C14</f>
         <v>0</v>
@@ -5475,14 +5608,14 @@
       <c r="F4" s="81"/>
     </row>
     <row r="5" spans="1:6" ht="18" thickTop="1" thickBot="1">
-      <c r="A5" s="96" t="str">
+      <c r="A5" s="115" t="str">
         <f>Zeitplanung!B18</f>
         <v>Implementation</v>
       </c>
-      <c r="B5" s="97"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="80">
         <f>Zeitplanung!C18</f>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D5" s="80">
         <f>Zeitplanung!D18</f>
@@ -5492,11 +5625,11 @@
       <c r="F5" s="81"/>
     </row>
     <row r="6" spans="1:6" ht="18" thickTop="1" thickBot="1">
-      <c r="A6" s="96" t="str">
+      <c r="A6" s="115" t="str">
         <f>Zeitplanung!B31</f>
         <v>Testen</v>
       </c>
-      <c r="B6" s="97"/>
+      <c r="B6" s="116"/>
       <c r="C6" s="80">
         <f>Zeitplanung!C31</f>
         <v>0</v>
@@ -5508,14 +5641,14 @@
       <c r="F6" s="81"/>
     </row>
     <row r="7" spans="1:6" ht="18" thickTop="1" thickBot="1">
-      <c r="A7" s="96" t="str">
+      <c r="A7" s="115" t="str">
         <f>Zeitplanung!B36</f>
         <v>Diverses</v>
       </c>
-      <c r="B7" s="97"/>
+      <c r="B7" s="116"/>
       <c r="C7" s="80">
         <f>Zeitplanung!C36</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D7" s="80">
         <f>Zeitplanung!D36</f>
@@ -5524,11 +5657,11 @@
       <c r="F7" s="81"/>
     </row>
     <row r="8" spans="1:6" ht="18" thickTop="1" thickBot="1">
-      <c r="A8" s="96" t="str">
+      <c r="A8" s="115" t="str">
         <f>Zeitplanung!B39</f>
         <v>Abschluss</v>
       </c>
-      <c r="B8" s="97"/>
+      <c r="B8" s="116"/>
       <c r="C8" s="80">
         <f>Zeitplanung!C39</f>
         <v>0</v>

--- a/Dok/Zeitplanung.xlsx
+++ b/Dok/Zeitplanung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10113"/>
   <workbookPr codeName="DieseArbeitsmappe" showPivotChartFilter="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuaodermatt/My Data/BLJ/Ultimate-Battlesnake/Dok/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358B7622-B29F-A843-8836-8E51CB658900}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0C50D8-720F-E848-965B-42E018C0476B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20040" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -1714,7 +1714,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2222,7 +2222,7 @@
   <dimension ref="A1:BJ43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AT30" sqref="AT30"/>
+      <selection activeCell="AY30" sqref="AY30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1"/>
@@ -3484,7 +3484,7 @@
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="31"/>
@@ -3628,7 +3628,7 @@
       </c>
       <c r="D20" s="83">
         <f t="shared" ref="D20:D30" si="0">SUM(G20:BJ20)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E20" s="50"/>
       <c r="F20" s="51"/>
@@ -3642,7 +3642,9 @@
       <c r="N20" s="59"/>
       <c r="O20" s="60"/>
       <c r="P20" s="61"/>
-      <c r="Q20" s="63"/>
+      <c r="Q20" s="63">
+        <v>3</v>
+      </c>
       <c r="R20" s="61"/>
       <c r="S20" s="57"/>
       <c r="T20" s="58"/>
@@ -3701,7 +3703,7 @@
       </c>
       <c r="D21" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E21" s="50"/>
       <c r="F21" s="52"/>
@@ -3715,8 +3717,12 @@
       <c r="N21" s="59"/>
       <c r="O21" s="60"/>
       <c r="P21" s="55"/>
-      <c r="Q21" s="63"/>
-      <c r="R21" s="63"/>
+      <c r="Q21" s="63">
+        <v>2</v>
+      </c>
+      <c r="R21" s="63">
+        <v>3</v>
+      </c>
       <c r="S21" s="57"/>
       <c r="T21" s="58"/>
       <c r="U21" s="59"/>
@@ -3774,7 +3780,7 @@
       </c>
       <c r="D22" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E22" s="50"/>
       <c r="F22" s="51"/>
@@ -3789,7 +3795,9 @@
       <c r="O22" s="60"/>
       <c r="P22" s="55"/>
       <c r="Q22" s="55"/>
-      <c r="R22" s="63"/>
+      <c r="R22" s="63">
+        <v>4</v>
+      </c>
       <c r="S22" s="57"/>
       <c r="T22" s="58"/>
       <c r="U22" s="59"/>
@@ -3847,7 +3855,7 @@
       </c>
       <c r="D23" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E23" s="50"/>
       <c r="F23" s="51"/>
@@ -3862,7 +3870,9 @@
       <c r="O23" s="60"/>
       <c r="P23" s="61"/>
       <c r="Q23" s="61"/>
-      <c r="R23" s="63"/>
+      <c r="R23" s="63">
+        <v>4</v>
+      </c>
       <c r="S23" s="57"/>
       <c r="T23" s="58"/>
       <c r="U23" s="59"/>
@@ -3920,7 +3930,7 @@
       </c>
       <c r="D24" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E24" s="50"/>
       <c r="F24" s="51"/>
@@ -3940,7 +3950,9 @@
       <c r="T24" s="58"/>
       <c r="U24" s="59"/>
       <c r="V24" s="60"/>
-      <c r="W24" s="63"/>
+      <c r="W24" s="63">
+        <v>2</v>
+      </c>
       <c r="X24" s="55"/>
       <c r="Y24" s="56"/>
       <c r="Z24" s="57"/>
@@ -3993,7 +4005,7 @@
       </c>
       <c r="D25" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E25" s="50"/>
       <c r="F25" s="51"/>
@@ -4013,8 +4025,12 @@
       <c r="T25" s="58"/>
       <c r="U25" s="59"/>
       <c r="V25" s="60"/>
-      <c r="W25" s="63"/>
-      <c r="X25" s="63"/>
+      <c r="W25" s="63">
+        <v>4</v>
+      </c>
+      <c r="X25" s="63">
+        <v>2</v>
+      </c>
       <c r="Y25" s="56"/>
       <c r="Z25" s="57"/>
       <c r="AA25" s="58"/>
@@ -4066,7 +4082,7 @@
       </c>
       <c r="D26" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E26" s="50"/>
       <c r="F26" s="51"/>
@@ -4087,8 +4103,12 @@
       <c r="U26" s="59"/>
       <c r="V26" s="60"/>
       <c r="W26" s="55"/>
-      <c r="X26" s="63"/>
-      <c r="Y26" s="63"/>
+      <c r="X26" s="63">
+        <v>5</v>
+      </c>
+      <c r="Y26" s="63">
+        <v>7</v>
+      </c>
       <c r="Z26" s="57"/>
       <c r="AA26" s="58"/>
       <c r="AB26" s="96"/>
@@ -4139,7 +4159,7 @@
       </c>
       <c r="D27" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E27" s="50"/>
       <c r="F27" s="51"/>
@@ -4180,7 +4200,9 @@
       <c r="AO27" s="58"/>
       <c r="AP27" s="59"/>
       <c r="AQ27" s="60"/>
-      <c r="AR27" s="63"/>
+      <c r="AR27" s="63">
+        <v>5</v>
+      </c>
       <c r="AS27" s="55"/>
       <c r="AT27" s="55"/>
       <c r="AU27" s="57"/>
@@ -4212,7 +4234,7 @@
       </c>
       <c r="D28" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E28" s="50"/>
       <c r="F28" s="51"/>
@@ -4253,7 +4275,9 @@
       <c r="AO28" s="58"/>
       <c r="AP28" s="59"/>
       <c r="AQ28" s="60"/>
-      <c r="AR28" s="63"/>
+      <c r="AR28" s="63">
+        <v>3</v>
+      </c>
       <c r="AS28" s="55"/>
       <c r="AT28" s="55"/>
       <c r="AU28" s="57"/>
@@ -4285,7 +4309,7 @@
       </c>
       <c r="D29" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E29" s="50"/>
       <c r="F29" s="51"/>
@@ -4327,7 +4351,9 @@
       <c r="AP29" s="71"/>
       <c r="AQ29" s="72"/>
       <c r="AR29" s="55"/>
-      <c r="AS29" s="63"/>
+      <c r="AS29" s="63">
+        <v>7</v>
+      </c>
       <c r="AT29" s="56"/>
       <c r="AU29" s="57"/>
       <c r="AV29" s="58"/>
@@ -4358,7 +4384,7 @@
       </c>
       <c r="D30" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E30" s="50"/>
       <c r="F30" s="51"/>
@@ -4401,7 +4427,9 @@
       <c r="AQ30" s="70"/>
       <c r="AR30" s="55"/>
       <c r="AS30" s="55"/>
-      <c r="AT30" s="63"/>
+      <c r="AT30" s="63">
+        <v>11</v>
+      </c>
       <c r="AU30" s="57"/>
       <c r="AV30" s="58"/>
       <c r="AW30" s="69"/>
@@ -5287,7 +5315,7 @@
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
@@ -5333,11 +5361,11 @@
       </c>
       <c r="Q43" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R43" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="S43" s="39">
         <f t="shared" si="3"/>
@@ -5357,15 +5385,15 @@
       </c>
       <c r="W43" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X43" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Y43" s="39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Z43" s="39">
         <f t="shared" si="3"/>
@@ -5441,15 +5469,15 @@
       </c>
       <c r="AR43" s="39">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AS43" s="39">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AT43" s="39">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AU43" s="39">
         <f t="shared" si="4"/>
@@ -5619,7 +5647,7 @@
       </c>
       <c r="D5" s="80">
         <f>Zeitplanung!D18</f>
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="E5" s="82"/>
       <c r="F5" s="81"/>
